--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuonglv\Desktop\projects\tiki\tiki-planning\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE1F3ED-255B-4B00-8B55-D02D7D9ADCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA70A0EF-DAF4-4BD2-9A18-463452F0C33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="request" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="99">
   <si>
     <t>RequestID</t>
   </si>
@@ -164,9 +164,6 @@
     <t>2022-12-01 08:00:03</t>
   </si>
   <si>
-    <t>2022-12-01 08:00:04</t>
-  </si>
-  <si>
     <t>2022-12-01 08:00:05</t>
   </si>
   <si>
@@ -200,9 +197,6 @@
     <t>forbidenPoint</t>
   </si>
   <si>
-    <t>002,003</t>
-  </si>
-  <si>
     <t>Hub</t>
   </si>
   <si>
@@ -312,13 +306,34 @@
   </si>
   <si>
     <t>18</t>
+  </si>
+  <si>
+    <t>00016</t>
+  </si>
+  <si>
+    <t>2022-12-01 08:00:15</t>
+  </si>
+  <si>
+    <t>2022-12-01 16:00:15</t>
+  </si>
+  <si>
+    <t>2022-12-01 08:30:04</t>
+  </si>
+  <si>
+    <t>StartWorkingTime</t>
+  </si>
+  <si>
+    <t>2022-12-01 05:00:00</t>
+  </si>
+  <si>
+    <t>2022-12-01 05:30:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +348,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -668,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +741,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -736,10 +758,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -756,10 +778,10 @@
         <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -776,10 +798,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -790,16 +812,16 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -810,16 +832,16 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -830,16 +852,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -850,161 +872,185 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>85</v>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;8&amp;K000000SMU Classification: Restricted&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1013,7 +1059,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,15 +1123,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;8&amp;K000000SMU Classification: Restricted&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,23 +1403,140 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;8&amp;K000000SMU Classification: Restricted&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -1378,65 +1544,81 @@
         <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2">
         <v>10000</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3">
         <v>25000</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4">
         <v>31000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5">
         <v>50000</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;8&amp;K000000SMU Classification: Restricted&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1455,16 +1637,16 @@
         <v>26</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1607,6 +1789,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;8&amp;K000000SMU Classification: Restricted&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1622,22 +1807,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1903,7 +2088,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E16" s="6">
         <v>30</v>
@@ -1921,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="6">
         <v>32</v>
@@ -1975,7 +2160,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6">
@@ -1993,7 +2178,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6">
@@ -2011,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E22" s="8">
         <v>27</v>
@@ -2029,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E23" s="8">
         <v>20</v>
@@ -2047,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E24" s="8">
         <v>18</v>
@@ -2065,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E25" s="8">
         <v>15</v>
@@ -2083,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E26" s="8">
         <v>20</v>
@@ -2101,7 +2286,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8">
@@ -2119,7 +2304,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8">
@@ -2137,7 +2322,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8">
@@ -2155,7 +2340,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8">
@@ -2173,7 +2358,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8">
@@ -2183,5 +2368,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;8&amp;K000000SMU Classification: Restricted&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>